--- a/table/DGP2_table.xlsx
+++ b/table/DGP2_table.xlsx
@@ -380,7 +380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/table/DGP2_table.xlsx
+++ b/table/DGP2_table.xlsx
@@ -425,37 +425,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.894</v>
+        <v>0.9095</v>
       </c>
       <c r="F2" t="n">
-        <v>0.926</v>
+        <v>0.951</v>
       </c>
       <c r="G2" t="n">
-        <v>5.38848733512673</v>
+        <v>5.50351525356368</v>
       </c>
       <c r="H2" t="n">
-        <v>3.27090708152366</v>
+        <v>3.07908719386351</v>
       </c>
       <c r="I2" t="n">
-        <v>71.1228354168561</v>
+        <v>70.329234999437</v>
       </c>
       <c r="J2" t="n">
-        <v>37.6265838438701</v>
+        <v>31.5739727012677</v>
       </c>
       <c r="K2" t="n">
-        <v>28.7071315422293</v>
+        <v>28.876841231199</v>
       </c>
       <c r="L2" t="n">
-        <v>27.480100771841</v>
+        <v>27.2040695895419</v>
       </c>
     </row>
     <row r="3">
@@ -463,37 +463,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8855</v>
+        <v>0.8995</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9275</v>
+        <v>0.943</v>
       </c>
       <c r="G3" t="n">
-        <v>5.59804306240658</v>
+        <v>5.83030807235181</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3089418718146</v>
+        <v>3.01844104284622</v>
       </c>
       <c r="I3" t="n">
-        <v>74.4411076658598</v>
+        <v>78.5831155549037</v>
       </c>
       <c r="J3" t="n">
-        <v>39.1167367556233</v>
+        <v>35.8858876026995</v>
       </c>
       <c r="K3" t="n">
-        <v>29.1031889415406</v>
+        <v>29.1494428784995</v>
       </c>
       <c r="L3" t="n">
-        <v>27.9923023835611</v>
+        <v>27.6494147599538</v>
       </c>
     </row>
     <row r="4">
@@ -501,37 +501,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.893</v>
+        <v>0.9065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9275</v>
+        <v>0.9415</v>
       </c>
       <c r="G4" t="n">
-        <v>5.87251963742658</v>
+        <v>5.659767969049</v>
       </c>
       <c r="H4" t="n">
-        <v>3.46691399594377</v>
+        <v>3.05919215691152</v>
       </c>
       <c r="I4" t="n">
-        <v>79.6514427286261</v>
+        <v>77.203972001241</v>
       </c>
       <c r="J4" t="n">
-        <v>42.0143380920817</v>
+        <v>35.3278171599281</v>
       </c>
       <c r="K4" t="n">
-        <v>29.1377931735202</v>
+        <v>29.2724447020153</v>
       </c>
       <c r="L4" t="n">
-        <v>28.1822232459956</v>
+        <v>27.8459141484303</v>
       </c>
     </row>
     <row r="5">
@@ -539,37 +539,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.886</v>
+        <v>0.884</v>
       </c>
       <c r="F5" t="n">
-        <v>0.929</v>
+        <v>0.9355</v>
       </c>
       <c r="G5" t="n">
-        <v>5.68226151737317</v>
+        <v>5.75997379712713</v>
       </c>
       <c r="H5" t="n">
-        <v>3.49896812678683</v>
+        <v>3.28236928074358</v>
       </c>
       <c r="I5" t="n">
-        <v>79.5441955213838</v>
+        <v>82.2745857549779</v>
       </c>
       <c r="J5" t="n">
-        <v>42.0043453774089</v>
+        <v>38.8347835581777</v>
       </c>
       <c r="K5" t="n">
-        <v>29.2606022382361</v>
+        <v>29.1814408575576</v>
       </c>
       <c r="L5" t="n">
-        <v>28.2256963773255</v>
+        <v>27.8945316809912</v>
       </c>
     </row>
     <row r="6">
@@ -577,37 +577,37 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.89</v>
+        <v>0.891</v>
       </c>
       <c r="F6" t="n">
-        <v>0.934</v>
+        <v>0.935</v>
       </c>
       <c r="G6" t="n">
-        <v>5.76261517243833</v>
+        <v>5.61524324948717</v>
       </c>
       <c r="H6" t="n">
-        <v>3.41735020318926</v>
+        <v>3.17021397974898</v>
       </c>
       <c r="I6" t="n">
-        <v>83.5599312244877</v>
+        <v>80.4787310168657</v>
       </c>
       <c r="J6" t="n">
-        <v>43.4680910714152</v>
+        <v>38.1365660427528</v>
       </c>
       <c r="K6" t="n">
-        <v>29.1344557214741</v>
+        <v>29.2779444618458</v>
       </c>
       <c r="L6" t="n">
-        <v>28.532279704317</v>
+        <v>27.9997593680049</v>
       </c>
     </row>
     <row r="7">
@@ -615,37 +615,37 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8935</v>
+        <v>0.895</v>
       </c>
       <c r="F7" t="n">
-        <v>0.923</v>
+        <v>0.933</v>
       </c>
       <c r="G7" t="n">
-        <v>5.46361054908694</v>
+        <v>5.79598490792577</v>
       </c>
       <c r="H7" t="n">
-        <v>3.21864561215507</v>
+        <v>3.21381735550987</v>
       </c>
       <c r="I7" t="n">
-        <v>81.5928073646983</v>
+        <v>80.8048699136136</v>
       </c>
       <c r="J7" t="n">
-        <v>44.0132298652351</v>
+        <v>37.2154257934482</v>
       </c>
       <c r="K7" t="n">
-        <v>29.2177644276875</v>
+        <v>29.2835167136986</v>
       </c>
       <c r="L7" t="n">
-        <v>28.5260612780428</v>
+        <v>28.0241275291862</v>
       </c>
     </row>
     <row r="8">
@@ -653,37 +653,37 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8875</v>
+        <v>0.898</v>
       </c>
       <c r="F8" t="n">
-        <v>0.923</v>
+        <v>0.9395</v>
       </c>
       <c r="G8" t="n">
-        <v>5.92860267461262</v>
+        <v>5.45610974393021</v>
       </c>
       <c r="H8" t="n">
-        <v>3.54626379582036</v>
+        <v>3.14970507755329</v>
       </c>
       <c r="I8" t="n">
-        <v>87.3806630064993</v>
+        <v>79.3657549425031</v>
       </c>
       <c r="J8" t="n">
-        <v>47.1403426601377</v>
+        <v>37.1676906946042</v>
       </c>
       <c r="K8" t="n">
-        <v>29.1886983477273</v>
+        <v>29.281752969609</v>
       </c>
       <c r="L8" t="n">
-        <v>28.3965298038472</v>
+        <v>28.0433571062377</v>
       </c>
     </row>
     <row r="9">
@@ -691,37 +691,37 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.872</v>
+        <v>0.8905</v>
       </c>
       <c r="F9" t="n">
-        <v>0.912</v>
+        <v>0.935</v>
       </c>
       <c r="G9" t="n">
-        <v>5.90253583685431</v>
+        <v>5.88194920333241</v>
       </c>
       <c r="H9" t="n">
-        <v>3.59872968214031</v>
+        <v>3.28066577560957</v>
       </c>
       <c r="I9" t="n">
-        <v>88.4618224636086</v>
+        <v>86.0563003665575</v>
       </c>
       <c r="J9" t="n">
-        <v>47.4932555660763</v>
+        <v>41.5301686216347</v>
       </c>
       <c r="K9" t="n">
-        <v>29.2996005872395</v>
+        <v>29.3562934147865</v>
       </c>
       <c r="L9" t="n">
-        <v>28.4517171659858</v>
+        <v>28.1517205376277</v>
       </c>
     </row>
     <row r="10">
@@ -729,37 +729,37 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8725</v>
+        <v>0.893</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9265</v>
+        <v>0.9405</v>
       </c>
       <c r="G10" t="n">
-        <v>5.73193325377215</v>
+        <v>5.73489428296966</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4704000164771</v>
+        <v>3.1507540025055</v>
       </c>
       <c r="I10" t="n">
-        <v>88.2898927242422</v>
+        <v>83.9727758227907</v>
       </c>
       <c r="J10" t="n">
-        <v>48.3566537329376</v>
+        <v>40.1387406536352</v>
       </c>
       <c r="K10" t="n">
-        <v>29.1156637789543</v>
+        <v>29.3849256793865</v>
       </c>
       <c r="L10" t="n">
-        <v>28.472478411892</v>
+        <v>28.0575172341936</v>
       </c>
     </row>
     <row r="11">
@@ -767,37 +767,37 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8745</v>
+        <v>0.888</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9125</v>
+        <v>0.93</v>
       </c>
       <c r="G11" t="n">
-        <v>5.87882189665306</v>
+        <v>5.87882011454223</v>
       </c>
       <c r="H11" t="n">
-        <v>3.57797148708399</v>
+        <v>3.36329238298648</v>
       </c>
       <c r="I11" t="n">
-        <v>88.6781031901496</v>
+        <v>87.0415969605736</v>
       </c>
       <c r="J11" t="n">
-        <v>48.7937718604028</v>
+        <v>41.540520891128</v>
       </c>
       <c r="K11" t="n">
-        <v>29.250801822417</v>
+        <v>29.4417327203755</v>
       </c>
       <c r="L11" t="n">
-        <v>28.5048759123412</v>
+        <v>28.187111839363</v>
       </c>
     </row>
     <row r="12">
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>70</v>
@@ -814,28 +814,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9095</v>
+        <v>0.911</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9535</v>
+        <v>0.955</v>
       </c>
       <c r="G12" t="n">
-        <v>5.39731219840753</v>
+        <v>5.27183917855917</v>
       </c>
       <c r="H12" t="n">
-        <v>2.85535114421113</v>
+        <v>2.84326885509006</v>
       </c>
       <c r="I12" t="n">
-        <v>70.5020504723248</v>
+        <v>71.8347114561135</v>
       </c>
       <c r="J12" t="n">
-        <v>28.9009365581474</v>
+        <v>28.077435497658</v>
       </c>
       <c r="K12" t="n">
-        <v>29.3147843946086</v>
+        <v>29.5967630454156</v>
       </c>
       <c r="L12" t="n">
-        <v>26.9327056398759</v>
+        <v>26.9360821704396</v>
       </c>
     </row>
     <row r="13">
@@ -843,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>70</v>
@@ -852,28 +852,28 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9165</v>
+        <v>0.8915</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9595</v>
+        <v>0.945</v>
       </c>
       <c r="G13" t="n">
-        <v>5.38061014220525</v>
+        <v>5.69482994111658</v>
       </c>
       <c r="H13" t="n">
-        <v>2.75194122992526</v>
+        <v>2.8549645309123</v>
       </c>
       <c r="I13" t="n">
-        <v>69.1568018059286</v>
+        <v>81.1248889855431</v>
       </c>
       <c r="J13" t="n">
-        <v>27.6877949938035</v>
+        <v>32.046027774451</v>
       </c>
       <c r="K13" t="n">
-        <v>29.5106624095728</v>
+        <v>29.8321663229826</v>
       </c>
       <c r="L13" t="n">
-        <v>27.1264843358214</v>
+        <v>27.4165571616049</v>
       </c>
     </row>
     <row r="14">
@@ -881,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>70</v>
@@ -890,28 +890,28 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9035</v>
+        <v>0.899</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9475</v>
+        <v>0.96</v>
       </c>
       <c r="G14" t="n">
-        <v>5.46510523884205</v>
+        <v>5.96810418436591</v>
       </c>
       <c r="H14" t="n">
-        <v>2.77874035352805</v>
+        <v>2.84276628792661</v>
       </c>
       <c r="I14" t="n">
-        <v>77.4294010526041</v>
+        <v>80.6827451483523</v>
       </c>
       <c r="J14" t="n">
-        <v>31.9741195256663</v>
+        <v>30.3096091480132</v>
       </c>
       <c r="K14" t="n">
-        <v>29.6438030941443</v>
+        <v>29.9383856041767</v>
       </c>
       <c r="L14" t="n">
-        <v>27.4918013061926</v>
+        <v>27.7026051821511</v>
       </c>
     </row>
     <row r="15">
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>70</v>
@@ -928,28 +928,28 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.899</v>
+        <v>0.906</v>
       </c>
       <c r="F15" t="n">
-        <v>0.949</v>
+        <v>0.9625</v>
       </c>
       <c r="G15" t="n">
-        <v>5.47319616426469</v>
+        <v>5.88599961526924</v>
       </c>
       <c r="H15" t="n">
-        <v>2.83301994063274</v>
+        <v>2.95347040703057</v>
       </c>
       <c r="I15" t="n">
-        <v>79.1624432012287</v>
+        <v>80.3893059317436</v>
       </c>
       <c r="J15" t="n">
-        <v>33.2622166913035</v>
+        <v>30.8511544707207</v>
       </c>
       <c r="K15" t="n">
-        <v>29.6123326718966</v>
+        <v>30.0127197123806</v>
       </c>
       <c r="L15" t="n">
-        <v>27.643179113399</v>
+        <v>27.6169251578461</v>
       </c>
     </row>
     <row r="16">
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
         <v>70</v>
@@ -966,28 +966,28 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.903</v>
+        <v>0.9015</v>
       </c>
       <c r="F16" t="n">
-        <v>0.947</v>
+        <v>0.9505</v>
       </c>
       <c r="G16" t="n">
-        <v>5.70323045160827</v>
+        <v>5.79919730209999</v>
       </c>
       <c r="H16" t="n">
-        <v>2.98716752021537</v>
+        <v>2.96215305086465</v>
       </c>
       <c r="I16" t="n">
-        <v>80.9164540013692</v>
+        <v>81.1204168478209</v>
       </c>
       <c r="J16" t="n">
-        <v>33.7079794827741</v>
+        <v>32.5570346033823</v>
       </c>
       <c r="K16" t="n">
-        <v>29.5873253369024</v>
+        <v>29.9664343873968</v>
       </c>
       <c r="L16" t="n">
-        <v>27.6349285275689</v>
+        <v>27.7083230524144</v>
       </c>
     </row>
     <row r="17">
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>70</v>
@@ -1004,28 +1004,28 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8955</v>
+        <v>0.899</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9415</v>
+        <v>0.953</v>
       </c>
       <c r="G17" t="n">
-        <v>5.487933929874</v>
+        <v>5.52153273773951</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88262744907287</v>
+        <v>3.03244284607323</v>
       </c>
       <c r="I17" t="n">
-        <v>80.0695037676207</v>
+        <v>80.8580551203151</v>
       </c>
       <c r="J17" t="n">
-        <v>34.247349972208</v>
+        <v>32.4954096883924</v>
       </c>
       <c r="K17" t="n">
-        <v>29.6888225130515</v>
+        <v>30.0179063971363</v>
       </c>
       <c r="L17" t="n">
-        <v>27.6463435703943</v>
+        <v>27.7919220767833</v>
       </c>
     </row>
     <row r="18">
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>70</v>
@@ -1042,28 +1042,28 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.891</v>
+        <v>0.8995</v>
       </c>
       <c r="F18" t="n">
-        <v>0.942</v>
+        <v>0.9425</v>
       </c>
       <c r="G18" t="n">
-        <v>5.83006656051912</v>
+        <v>5.88261641655098</v>
       </c>
       <c r="H18" t="n">
-        <v>3.04524236385411</v>
+        <v>2.96018570371151</v>
       </c>
       <c r="I18" t="n">
-        <v>85.1423916043169</v>
+        <v>83.6514566702976</v>
       </c>
       <c r="J18" t="n">
-        <v>36.2192114923492</v>
+        <v>33.3974178253235</v>
       </c>
       <c r="K18" t="n">
-        <v>29.6734752595224</v>
+        <v>29.9136683276431</v>
       </c>
       <c r="L18" t="n">
-        <v>27.6779103651072</v>
+        <v>27.8243323703166</v>
       </c>
     </row>
     <row r="19">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
         <v>70</v>
@@ -1080,28 +1080,28 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9045</v>
+        <v>0.8885</v>
       </c>
       <c r="F19" t="n">
-        <v>0.946</v>
+        <v>0.9435</v>
       </c>
       <c r="G19" t="n">
-        <v>5.66726191763129</v>
+        <v>5.66884034439193</v>
       </c>
       <c r="H19" t="n">
-        <v>2.95778215896581</v>
+        <v>2.92644384706567</v>
       </c>
       <c r="I19" t="n">
-        <v>81.1165063969411</v>
+        <v>83.1199847421404</v>
       </c>
       <c r="J19" t="n">
-        <v>34.4890337573668</v>
+        <v>33.2687221452782</v>
       </c>
       <c r="K19" t="n">
-        <v>29.7400495354701</v>
+        <v>29.985978103809</v>
       </c>
       <c r="L19" t="n">
-        <v>27.7342492102449</v>
+        <v>27.897570103637</v>
       </c>
     </row>
     <row r="20">
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
         <v>70</v>
@@ -1118,28 +1118,28 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9035</v>
+        <v>0.8875</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9445</v>
+        <v>0.936</v>
       </c>
       <c r="G20" t="n">
-        <v>5.70306213848454</v>
+        <v>5.82502763184742</v>
       </c>
       <c r="H20" t="n">
-        <v>2.94513580870782</v>
+        <v>2.96026939172924</v>
       </c>
       <c r="I20" t="n">
-        <v>81.5148274777625</v>
+        <v>85.6523301434355</v>
       </c>
       <c r="J20" t="n">
-        <v>34.4907293684992</v>
+        <v>34.3210942380441</v>
       </c>
       <c r="K20" t="n">
-        <v>29.657002563159</v>
+        <v>30.1032664231863</v>
       </c>
       <c r="L20" t="n">
-        <v>27.6288350604982</v>
+        <v>27.9381254698271</v>
       </c>
     </row>
     <row r="21">
@@ -1147,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
         <v>70</v>
@@ -1156,28 +1156,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9155</v>
+        <v>0.898</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9565</v>
+        <v>0.9445</v>
       </c>
       <c r="G21" t="n">
-        <v>5.49032774068397</v>
+        <v>5.57053908712591</v>
       </c>
       <c r="H21" t="n">
-        <v>2.8888293736211</v>
+        <v>2.89576051487607</v>
       </c>
       <c r="I21" t="n">
-        <v>78.5301998741656</v>
+        <v>79.7197729955518</v>
       </c>
       <c r="J21" t="n">
-        <v>33.2035313620444</v>
+        <v>32.5275372650204</v>
       </c>
       <c r="K21" t="n">
-        <v>29.8790388829795</v>
+        <v>29.9451749648809</v>
       </c>
       <c r="L21" t="n">
-        <v>27.7753589343449</v>
+        <v>27.7425166267155</v>
       </c>
     </row>
     <row r="22">
@@ -1185,37 +1185,37 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9075</v>
+        <v>0.915</v>
       </c>
       <c r="F22" t="n">
-        <v>0.942</v>
+        <v>0.944</v>
       </c>
       <c r="G22" t="n">
-        <v>5.06687145839511</v>
+        <v>5.04521216741332</v>
       </c>
       <c r="H22" t="n">
-        <v>3.28347530004882</v>
+        <v>3.05768365335885</v>
       </c>
       <c r="I22" t="n">
-        <v>63.7627006955382</v>
+        <v>64.9529507844054</v>
       </c>
       <c r="J22" t="n">
-        <v>34.8650872445058</v>
+        <v>31.1814691017109</v>
       </c>
       <c r="K22" t="n">
-        <v>28.6287529225251</v>
+        <v>29.0237248137683</v>
       </c>
       <c r="L22" t="n">
-        <v>27.5636977955879</v>
+        <v>27.2775731787691</v>
       </c>
     </row>
     <row r="23">
@@ -1223,37 +1223,37 @@
         <v>12</v>
       </c>
       <c r="B23" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9005</v>
+        <v>0.9135</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9355</v>
+        <v>0.943</v>
       </c>
       <c r="G23" t="n">
-        <v>5.42394915668987</v>
+        <v>5.41278501135787</v>
       </c>
       <c r="H23" t="n">
-        <v>3.42254742650608</v>
+        <v>3.14422405244195</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3541462729714</v>
+        <v>72.6453837359896</v>
       </c>
       <c r="J23" t="n">
-        <v>40.1007790233363</v>
+        <v>35.6313071483517</v>
       </c>
       <c r="K23" t="n">
-        <v>28.9125263529719</v>
+        <v>29.2374106905486</v>
       </c>
       <c r="L23" t="n">
-        <v>28.147469228781</v>
+        <v>27.7714351430676</v>
       </c>
     </row>
     <row r="24">
@@ -1261,37 +1261,37 @@
         <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.902</v>
+        <v>0.9055</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9305</v>
+        <v>0.942</v>
       </c>
       <c r="G24" t="n">
-        <v>5.46599578997782</v>
+        <v>5.5226464113803</v>
       </c>
       <c r="H24" t="n">
-        <v>3.42083127797975</v>
+        <v>3.03775913885441</v>
       </c>
       <c r="I24" t="n">
-        <v>76.0443086728157</v>
+        <v>78.4830069713879</v>
       </c>
       <c r="J24" t="n">
-        <v>43.0850132158592</v>
+        <v>38.2472294425342</v>
       </c>
       <c r="K24" t="n">
-        <v>29.2590792697055</v>
+        <v>29.2735916442058</v>
       </c>
       <c r="L24" t="n">
-        <v>28.2964719909459</v>
+        <v>27.9583724233603</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1299,37 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8875</v>
+        <v>0.8945</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9235</v>
+        <v>0.937</v>
       </c>
       <c r="G25" t="n">
-        <v>5.63770805202214</v>
+        <v>5.51112394891045</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5051684764924</v>
+        <v>3.19266243034449</v>
       </c>
       <c r="I25" t="n">
-        <v>81.4756399022775</v>
+        <v>80.7419654925552</v>
       </c>
       <c r="J25" t="n">
-        <v>45.9814306019562</v>
+        <v>39.9638632301325</v>
       </c>
       <c r="K25" t="n">
-        <v>29.1461653085998</v>
+        <v>29.4234856193434</v>
       </c>
       <c r="L25" t="n">
-        <v>28.3082826006016</v>
+        <v>28.0863980025428</v>
       </c>
     </row>
     <row r="26">
@@ -1337,37 +1337,37 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8885</v>
+        <v>0.8945</v>
       </c>
       <c r="F26" t="n">
-        <v>0.923</v>
+        <v>0.932</v>
       </c>
       <c r="G26" t="n">
-        <v>5.68973401130058</v>
+        <v>5.63272862765727</v>
       </c>
       <c r="H26" t="n">
-        <v>3.56439482339545</v>
+        <v>3.37264644843474</v>
       </c>
       <c r="I26" t="n">
-        <v>84.4071194309074</v>
+        <v>86.708201452409</v>
       </c>
       <c r="J26" t="n">
-        <v>47.7887634980773</v>
+        <v>44.0690290967766</v>
       </c>
       <c r="K26" t="n">
-        <v>29.1399630526537</v>
+        <v>29.3928387671737</v>
       </c>
       <c r="L26" t="n">
-        <v>28.4119782646616</v>
+        <v>28.2205410774145</v>
       </c>
     </row>
     <row r="27">
@@ -1375,37 +1375,37 @@
         <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8855</v>
+        <v>0.8885</v>
       </c>
       <c r="F27" t="n">
-        <v>0.924</v>
+        <v>0.9235</v>
       </c>
       <c r="G27" t="n">
-        <v>5.76836521522138</v>
+        <v>5.79613486247909</v>
       </c>
       <c r="H27" t="n">
-        <v>3.51488626132056</v>
+        <v>3.39243592003723</v>
       </c>
       <c r="I27" t="n">
-        <v>82.9945589282012</v>
+        <v>87.7782001674034</v>
       </c>
       <c r="J27" t="n">
-        <v>46.8189532934403</v>
+        <v>44.6479562527479</v>
       </c>
       <c r="K27" t="n">
-        <v>29.2775167084799</v>
+        <v>29.3599349287788</v>
       </c>
       <c r="L27" t="n">
-        <v>28.4677689183552</v>
+        <v>28.0594707559852</v>
       </c>
     </row>
     <row r="28">
@@ -1413,37 +1413,37 @@
         <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8885</v>
+        <v>0.895</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9205</v>
+        <v>0.932</v>
       </c>
       <c r="G28" t="n">
-        <v>5.81146077583688</v>
+        <v>5.82947932830533</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55658331204283</v>
+        <v>3.31474855111101</v>
       </c>
       <c r="I28" t="n">
-        <v>85.4421636605101</v>
+        <v>87.8065963487224</v>
       </c>
       <c r="J28" t="n">
-        <v>49.1939024052462</v>
+        <v>44.4545428826184</v>
       </c>
       <c r="K28" t="n">
-        <v>29.3441558037383</v>
+        <v>29.4862987348885</v>
       </c>
       <c r="L28" t="n">
-        <v>28.6366693814801</v>
+        <v>28.313415027733</v>
       </c>
     </row>
     <row r="29">
@@ -1451,37 +1451,37 @@
         <v>12</v>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8865</v>
+        <v>0.894</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9225</v>
+        <v>0.9325</v>
       </c>
       <c r="G29" t="n">
-        <v>5.49367181755414</v>
+        <v>5.45383596353537</v>
       </c>
       <c r="H29" t="n">
-        <v>3.67798492106899</v>
+        <v>3.28982706200073</v>
       </c>
       <c r="I29" t="n">
-        <v>83.9516069631503</v>
+        <v>82.4647731116922</v>
       </c>
       <c r="J29" t="n">
-        <v>47.906930163608</v>
+        <v>42.3399503296955</v>
       </c>
       <c r="K29" t="n">
-        <v>29.2933575843685</v>
+        <v>29.4199176944499</v>
       </c>
       <c r="L29" t="n">
-        <v>28.5906564487339</v>
+        <v>28.0523269174299</v>
       </c>
     </row>
     <row r="30">
@@ -1489,37 +1489,37 @@
         <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8935</v>
+        <v>0.887</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9235</v>
+        <v>0.933</v>
       </c>
       <c r="G30" t="n">
-        <v>5.58505277568073</v>
+        <v>5.68213447625856</v>
       </c>
       <c r="H30" t="n">
-        <v>3.63374376688609</v>
+        <v>3.26329628523794</v>
       </c>
       <c r="I30" t="n">
-        <v>81.9225044305456</v>
+        <v>89.329162750696</v>
       </c>
       <c r="J30" t="n">
-        <v>46.5617055056159</v>
+        <v>44.8280948772219</v>
       </c>
       <c r="K30" t="n">
-        <v>29.3182623910731</v>
+        <v>29.360918524848</v>
       </c>
       <c r="L30" t="n">
-        <v>28.4776430834863</v>
+        <v>28.1875167849546</v>
       </c>
     </row>
     <row r="31">
@@ -1527,37 +1527,37 @@
         <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>0.894</v>
+        <v>0.8895</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9265</v>
+        <v>0.935</v>
       </c>
       <c r="G31" t="n">
-        <v>5.5478661318669</v>
+        <v>5.7172720372982</v>
       </c>
       <c r="H31" t="n">
-        <v>3.46758975740996</v>
+        <v>3.20194252489752</v>
       </c>
       <c r="I31" t="n">
-        <v>80.8465726318235</v>
+        <v>86.0443159850095</v>
       </c>
       <c r="J31" t="n">
-        <v>46.4702508238186</v>
+        <v>43.5890137802576</v>
       </c>
       <c r="K31" t="n">
-        <v>29.2330949459111</v>
+        <v>29.3507797100542</v>
       </c>
       <c r="L31" t="n">
-        <v>28.5112902743519</v>
+        <v>28.1036726316785</v>
       </c>
     </row>
     <row r="32">
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C32" t="n">
         <v>70</v>
@@ -1574,28 +1574,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9245</v>
+        <v>0.912</v>
       </c>
       <c r="F32" t="n">
-        <v>0.96</v>
+        <v>0.9555</v>
       </c>
       <c r="G32" t="n">
-        <v>5.06608765542902</v>
+        <v>5.30575055872026</v>
       </c>
       <c r="H32" t="n">
-        <v>2.89746301222981</v>
+        <v>2.81634745216993</v>
       </c>
       <c r="I32" t="n">
-        <v>64.2065633615962</v>
+        <v>68.7621649996594</v>
       </c>
       <c r="J32" t="n">
-        <v>27.5101189869979</v>
+        <v>27.8681251402425</v>
       </c>
       <c r="K32" t="n">
-        <v>29.5840787776874</v>
+        <v>29.2887250377095</v>
       </c>
       <c r="L32" t="n">
-        <v>27.2681362558696</v>
+        <v>26.7416447293192</v>
       </c>
     </row>
     <row r="33">
@@ -1603,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C33" t="n">
         <v>70</v>
@@ -1612,28 +1612,28 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9095</v>
+        <v>0.9055</v>
       </c>
       <c r="F33" t="n">
-        <v>0.958</v>
+        <v>0.9515</v>
       </c>
       <c r="G33" t="n">
-        <v>5.24927186811245</v>
+        <v>5.53999220429471</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9515433390218</v>
+        <v>2.89088339815981</v>
       </c>
       <c r="I33" t="n">
-        <v>74.0849483473717</v>
+        <v>72.9718252185712</v>
       </c>
       <c r="J33" t="n">
-        <v>32.5223918580717</v>
+        <v>29.3766536706781</v>
       </c>
       <c r="K33" t="n">
-        <v>29.7543431683925</v>
+        <v>29.6727169439048</v>
       </c>
       <c r="L33" t="n">
-        <v>27.7638292787549</v>
+        <v>27.4039622076843</v>
       </c>
     </row>
     <row r="34">
@@ -1641,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C34" t="n">
         <v>70</v>
@@ -1650,28 +1650,28 @@
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9185</v>
+        <v>0.91</v>
       </c>
       <c r="F34" t="n">
-        <v>0.958</v>
+        <v>0.9535</v>
       </c>
       <c r="G34" t="n">
-        <v>5.40833611362786</v>
+        <v>5.76028254599396</v>
       </c>
       <c r="H34" t="n">
-        <v>2.84270648459457</v>
+        <v>2.96991985731011</v>
       </c>
       <c r="I34" t="n">
-        <v>71.420333128156</v>
+        <v>79.9025811137007</v>
       </c>
       <c r="J34" t="n">
-        <v>30.9633134895252</v>
+        <v>32.1184193320203</v>
       </c>
       <c r="K34" t="n">
-        <v>29.8438910027447</v>
+        <v>29.7375336228675</v>
       </c>
       <c r="L34" t="n">
-        <v>27.9013025939244</v>
+        <v>27.6000638408354</v>
       </c>
     </row>
     <row r="35">
@@ -1679,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C35" t="n">
         <v>70</v>
@@ -1688,28 +1688,28 @@
         <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9225</v>
+        <v>0.912</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9595</v>
+        <v>0.9515</v>
       </c>
       <c r="G35" t="n">
-        <v>5.54169772874347</v>
+        <v>5.51636940698718</v>
       </c>
       <c r="H35" t="n">
-        <v>2.91118750132613</v>
+        <v>2.87538963323116</v>
       </c>
       <c r="I35" t="n">
-        <v>73.6407672394036</v>
+        <v>77.372266814361</v>
       </c>
       <c r="J35" t="n">
-        <v>31.8480218391807</v>
+        <v>32.7379451636404</v>
       </c>
       <c r="K35" t="n">
-        <v>29.9476634371638</v>
+        <v>29.8149278905435</v>
       </c>
       <c r="L35" t="n">
-        <v>27.9925830152649</v>
+        <v>27.5915887422492</v>
       </c>
     </row>
     <row r="36">
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C36" t="n">
         <v>70</v>
@@ -1726,28 +1726,28 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.91</v>
+        <v>0.892</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9535</v>
+        <v>0.945</v>
       </c>
       <c r="G36" t="n">
-        <v>5.91214887170978</v>
+        <v>5.40918343607354</v>
       </c>
       <c r="H36" t="n">
-        <v>3.05375303105304</v>
+        <v>2.96147256446076</v>
       </c>
       <c r="I36" t="n">
-        <v>81.692396049999</v>
+        <v>82.9366021904085</v>
       </c>
       <c r="J36" t="n">
-        <v>36.2242967791822</v>
+        <v>35.7559391372373</v>
       </c>
       <c r="K36" t="n">
-        <v>30.0983690144281</v>
+        <v>29.7417047915456</v>
       </c>
       <c r="L36" t="n">
-        <v>28.0696832650555</v>
+        <v>27.7714426074171</v>
       </c>
     </row>
     <row r="37">
@@ -1755,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C37" t="n">
         <v>70</v>
@@ -1764,28 +1764,28 @@
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.911</v>
+        <v>0.8975</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9525</v>
+        <v>0.9505</v>
       </c>
       <c r="G37" t="n">
-        <v>5.39615374941147</v>
+        <v>5.76391180357558</v>
       </c>
       <c r="H37" t="n">
-        <v>2.92032077340967</v>
+        <v>3.05114964485878</v>
       </c>
       <c r="I37" t="n">
-        <v>79.2944143312221</v>
+        <v>85.6741716477743</v>
       </c>
       <c r="J37" t="n">
-        <v>34.8040088616513</v>
+        <v>36.9437425025331</v>
       </c>
       <c r="K37" t="n">
-        <v>30.1288574396853</v>
+        <v>29.6801047890038</v>
       </c>
       <c r="L37" t="n">
-        <v>28.0886173839423</v>
+        <v>27.74643955299</v>
       </c>
     </row>
     <row r="38">
@@ -1793,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C38" t="n">
         <v>70</v>
@@ -1802,28 +1802,28 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9065</v>
+        <v>0.8965</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9505</v>
+        <v>0.952</v>
       </c>
       <c r="G38" t="n">
-        <v>5.46927588410816</v>
+        <v>5.47855278921884</v>
       </c>
       <c r="H38" t="n">
-        <v>2.94591011465055</v>
+        <v>2.99478376629157</v>
       </c>
       <c r="I38" t="n">
-        <v>80.3996477557609</v>
+        <v>82.2985382844104</v>
       </c>
       <c r="J38" t="n">
-        <v>35.7711430587203</v>
+        <v>35.1253676387342</v>
       </c>
       <c r="K38" t="n">
-        <v>29.99619599404</v>
+        <v>29.7174110979666</v>
       </c>
       <c r="L38" t="n">
-        <v>28.06588560005</v>
+        <v>27.6858320255673</v>
       </c>
     </row>
     <row r="39">
@@ -1831,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C39" t="n">
         <v>70</v>
@@ -1840,28 +1840,28 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8955</v>
+        <v>0.9065</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9475</v>
+        <v>0.949</v>
       </c>
       <c r="G39" t="n">
-        <v>5.61995577705413</v>
+        <v>5.58588358385083</v>
       </c>
       <c r="H39" t="n">
-        <v>2.9988446943269</v>
+        <v>2.9950723960674</v>
       </c>
       <c r="I39" t="n">
-        <v>82.6711603011816</v>
+        <v>81.907055405784</v>
       </c>
       <c r="J39" t="n">
-        <v>37.1612707322646</v>
+        <v>35.2985097360326</v>
       </c>
       <c r="K39" t="n">
-        <v>29.9426871277976</v>
+        <v>29.6217291026252</v>
       </c>
       <c r="L39" t="n">
-        <v>28.1179151936047</v>
+        <v>27.6956489771832</v>
       </c>
     </row>
     <row r="40">
@@ -1869,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C40" t="n">
         <v>70</v>
@@ -1878,28 +1878,28 @@
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8985</v>
+        <v>0.9065</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9435</v>
+        <v>0.947</v>
       </c>
       <c r="G40" t="n">
-        <v>5.71563393870481</v>
+        <v>5.51996576218271</v>
       </c>
       <c r="H40" t="n">
-        <v>3.03190623502131</v>
+        <v>2.86007235174915</v>
       </c>
       <c r="I40" t="n">
-        <v>85.7153992000119</v>
+        <v>83.8534434579886</v>
       </c>
       <c r="J40" t="n">
-        <v>39.0071495138492</v>
+        <v>36.5316869819147</v>
       </c>
       <c r="K40" t="n">
-        <v>30.039818222937</v>
+        <v>29.9102623222381</v>
       </c>
       <c r="L40" t="n">
-        <v>28.0474477295697</v>
+        <v>27.9503752961135</v>
       </c>
     </row>
     <row r="41">
@@ -1907,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
         <v>70</v>
@@ -1916,28 +1916,28 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9055</v>
+        <v>0.911</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9495</v>
+        <v>0.952</v>
       </c>
       <c r="G41" t="n">
-        <v>5.85473416337159</v>
+        <v>5.6806962185394</v>
       </c>
       <c r="H41" t="n">
-        <v>3.07504527271027</v>
+        <v>2.95890358809664</v>
       </c>
       <c r="I41" t="n">
-        <v>82.4942957547249</v>
+        <v>79.6411993615601</v>
       </c>
       <c r="J41" t="n">
-        <v>35.6013982950655</v>
+        <v>34.3088533062876</v>
       </c>
       <c r="K41" t="n">
-        <v>29.9765367819938</v>
+        <v>29.9182944179287</v>
       </c>
       <c r="L41" t="n">
-        <v>28.1071173103306</v>
+        <v>27.6592649547763</v>
       </c>
     </row>
   </sheetData>
